--- a/data/RawData/ObsData/2009-2022/2020/01-03-2020.xlsx
+++ b/data/RawData/ObsData/2009-2022/2020/01-03-2020.xlsx
@@ -5,18 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\Golden Lion Tamarins Brazil\Analysis\GoldenLionTamarins\data\RawData\Groups\2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\Golden Lion Tamarins Brazil\Analysis\GoldenLionTamarins\data\RawData\ObsData\2009-2022\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED4703B-BB77-427A-A0EF-CB4DDAD7C013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3626EEBA-4BFF-4521-A338-7E7ABDF1445A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="675" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$Z$290</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="443">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1353,6 +1356,9 @@
   </si>
   <si>
     <t>Estrada PDA</t>
+  </si>
+  <si>
+    <t>12/19</t>
   </si>
 </sst>
 </file>
@@ -2825,9 +2831,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="17" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2941,6 +2944,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3293,33 +3299,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="G291" sqref="G291"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="6" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.109375" style="209" customWidth="1"/>
-    <col min="7" max="7" width="5.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="0.5546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.44140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="4.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" style="209" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="0.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="4.140625" style="1" customWidth="1"/>
     <col min="16" max="16" width="5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5546875" style="1" customWidth="1"/>
-    <col min="18" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="17" max="17" width="4.5703125" style="1" customWidth="1"/>
+    <col min="18" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>437</v>
       </c>
@@ -3342,7 +3348,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="4"/>
     </row>
-    <row r="2" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -3361,7 +3367,7 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
@@ -3384,7 +3390,7 @@
       <c r="P3" s="13"/>
       <c r="Q3" s="16"/>
     </row>
-    <row r="4" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
@@ -3435,7 +3441,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>10</v>
       </c>
@@ -3484,7 +3490,7 @@
       </c>
       <c r="Q5" s="23"/>
     </row>
-    <row r="6" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>19</v>
       </c>
@@ -3533,7 +3539,7 @@
         <v>4407</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>23</v>
       </c>
@@ -3580,7 +3586,7 @@
       </c>
       <c r="Q7" s="27"/>
     </row>
-    <row r="8" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>30</v>
       </c>
@@ -3629,7 +3635,7 @@
       </c>
       <c r="Q8" s="27"/>
     </row>
-    <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>15</v>
       </c>
@@ -3676,7 +3682,7 @@
       </c>
       <c r="Q9" s="31"/>
     </row>
-    <row r="10" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>15</v>
       </c>
@@ -3709,7 +3715,7 @@
       <c r="P10" s="33"/>
       <c r="Q10" s="34"/>
     </row>
-    <row r="11" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>15</v>
       </c>
@@ -3758,7 +3764,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>15</v>
       </c>
@@ -3804,7 +3810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>19</v>
       </c>
@@ -3844,7 +3850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="39"/>
       <c r="B14" s="30">
         <v>1388</v>
@@ -3861,7 +3867,7 @@
       <c r="H14" s="31"/>
       <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
@@ -3882,7 +3888,7 @@
       <c r="P15" s="10"/>
       <c r="Q15" s="11"/>
     </row>
-    <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>50</v>
       </c>
@@ -3931,7 +3937,7 @@
         <v>4909</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>53</v>
       </c>
@@ -3978,7 +3984,7 @@
       </c>
       <c r="Q17" s="46"/>
     </row>
-    <row r="18" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>53</v>
       </c>
@@ -4023,7 +4029,7 @@
       </c>
       <c r="Q18" s="38"/>
     </row>
-    <row r="19" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>53</v>
       </c>
@@ -4062,7 +4068,7 @@
       </c>
       <c r="Q19" s="38"/>
     </row>
-    <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>53</v>
       </c>
@@ -4101,7 +4107,7 @@
       </c>
       <c r="Q20" s="38"/>
     </row>
-    <row r="21" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>53</v>
       </c>
@@ -4134,7 +4140,7 @@
       </c>
       <c r="Q21" s="51"/>
     </row>
-    <row r="22" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="187"/>
       <c r="B22" s="163"/>
       <c r="C22" s="163"/>
@@ -4153,7 +4159,7 @@
       <c r="P22" s="52"/>
       <c r="Q22" s="53"/>
     </row>
-    <row r="23" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>52</v>
       </c>
@@ -4188,7 +4194,7 @@
       </c>
       <c r="Q23" s="43"/>
     </row>
-    <row r="24" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="65"/>
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
@@ -4221,7 +4227,7 @@
       </c>
       <c r="Q24" s="55"/>
     </row>
-    <row r="25" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>393</v>
       </c>
@@ -4240,8 +4246,8 @@
       <c r="F25" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="222">
-        <v>43809</v>
+      <c r="G25" s="261" t="s">
+        <v>442</v>
       </c>
       <c r="H25" s="31">
         <v>4145</v>
@@ -4268,7 +4274,7 @@
       </c>
       <c r="Q25" s="27"/>
     </row>
-    <row r="26" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="213"/>
       <c r="B26" s="62"/>
       <c r="C26" s="63"/>
@@ -4299,7 +4305,7 @@
       </c>
       <c r="Q26" s="27"/>
     </row>
-    <row r="27" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="65" t="s">
         <v>89</v>
       </c>
@@ -4349,7 +4355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="203" t="s">
         <v>422</v>
       </c>
@@ -4393,7 +4399,7 @@
       <c r="Q28" s="27"/>
       <c r="Z28" s="88"/>
     </row>
-    <row r="29" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="68"/>
       <c r="B29" s="105" t="s">
         <v>416</v>
@@ -4434,7 +4440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="68"/>
       <c r="B30" s="100" t="s">
         <v>417</v>
@@ -4474,7 +4480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="114"/>
       <c r="B31" s="105" t="s">
         <v>423</v>
@@ -4504,7 +4510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="114"/>
       <c r="B32" s="100" t="s">
         <v>424</v>
@@ -4527,7 +4533,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="1:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="220" t="s">
         <v>0</v>
       </c>
@@ -4546,7 +4552,7 @@
       <c r="F33" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="G33" s="223" t="s">
+      <c r="G33" s="222" t="s">
         <v>85</v>
       </c>
       <c r="H33" s="87"/>
@@ -4576,15 +4582,15 @@
         <v>4822</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="230"/>
-      <c r="B34" s="231"/>
-      <c r="C34" s="231"/>
-      <c r="D34" s="231"/>
-      <c r="E34" s="231"/>
-      <c r="F34" s="231"/>
-      <c r="G34" s="232"/>
-      <c r="H34" s="233"/>
+    <row r="34" spans="1:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="229"/>
+      <c r="B34" s="230"/>
+      <c r="C34" s="230"/>
+      <c r="D34" s="230"/>
+      <c r="E34" s="230"/>
+      <c r="F34" s="230"/>
+      <c r="G34" s="231"/>
+      <c r="H34" s="232"/>
       <c r="I34" s="20"/>
       <c r="J34" s="28"/>
       <c r="K34" s="37" t="s">
@@ -4607,14 +4613,14 @@
       </c>
       <c r="Q34" s="38"/>
     </row>
-    <row r="35" spans="1:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="97"/>
       <c r="C35" s="97"/>
       <c r="D35" s="97"/>
       <c r="E35" s="97"/>
       <c r="F35" s="97"/>
-      <c r="G35" s="237"/>
-      <c r="H35" s="238"/>
+      <c r="G35" s="236"/>
+      <c r="H35" s="237"/>
       <c r="I35" s="20"/>
       <c r="J35" s="39"/>
       <c r="K35" s="60" t="s">
@@ -4637,8 +4643,8 @@
       </c>
       <c r="Q35" s="61"/>
     </row>
-    <row r="36" spans="1:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="236" t="s">
+    <row r="36" spans="1:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="235" t="s">
         <v>427</v>
       </c>
       <c r="B36" s="37" t="s">
@@ -4653,7 +4659,7 @@
       <c r="E36" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F36" s="239" t="s">
+      <c r="F36" s="238" t="s">
         <v>25</v>
       </c>
       <c r="G36" s="37" t="s">
@@ -4677,15 +4683,15 @@
       <c r="O36" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="P36" s="234" t="s">
+      <c r="P36" s="233" t="s">
         <v>369</v>
       </c>
-      <c r="Q36" s="235"/>
+      <c r="Q36" s="234"/>
       <c r="U36" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="28" t="s">
         <v>93</v>
       </c>
@@ -4701,7 +4707,7 @@
       <c r="E37" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F37" s="239" t="s">
+      <c r="F37" s="238" t="s">
         <v>25</v>
       </c>
       <c r="G37" s="37" t="s">
@@ -4714,23 +4720,23 @@
       <c r="J37" s="186" t="s">
         <v>15</v>
       </c>
-      <c r="K37" s="224" t="s">
+      <c r="K37" s="223" t="s">
         <v>51</v>
       </c>
-      <c r="L37" s="224"/>
-      <c r="M37" s="224"/>
-      <c r="N37" s="224" t="s">
+      <c r="L37" s="223"/>
+      <c r="M37" s="223"/>
+      <c r="N37" s="223" t="s">
         <v>97</v>
       </c>
-      <c r="O37" s="224" t="s">
-        <v>13</v>
-      </c>
-      <c r="P37" s="225" t="s">
+      <c r="O37" s="223" t="s">
+        <v>13</v>
+      </c>
+      <c r="P37" s="224" t="s">
         <v>333</v>
       </c>
-      <c r="Q37" s="226"/>
-    </row>
-    <row r="38" spans="1:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q37" s="225"/>
+    </row>
+    <row r="38" spans="1:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="220"/>
       <c r="B38" s="166" t="s">
         <v>81</v>
@@ -4744,10 +4750,10 @@
       <c r="E38" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="239" t="s">
+      <c r="F38" s="238" t="s">
         <v>25</v>
       </c>
-      <c r="G38" s="223" t="s">
+      <c r="G38" s="222" t="s">
         <v>69</v>
       </c>
       <c r="H38" s="104"/>
@@ -4755,30 +4761,30 @@
       <c r="J38" s="186" t="s">
         <v>15</v>
       </c>
-      <c r="K38" s="224" t="s">
+      <c r="K38" s="223" t="s">
         <v>92</v>
       </c>
-      <c r="L38" s="224" t="s">
+      <c r="L38" s="223" t="s">
         <v>78</v>
       </c>
-      <c r="M38" s="224" t="s">
+      <c r="M38" s="223" t="s">
         <v>92</v>
       </c>
-      <c r="N38" s="224" t="s">
-        <v>12</v>
-      </c>
-      <c r="O38" s="224" t="s">
-        <v>13</v>
-      </c>
-      <c r="P38" s="224" t="s">
+      <c r="N38" s="223" t="s">
+        <v>12</v>
+      </c>
+      <c r="O38" s="223" t="s">
+        <v>13</v>
+      </c>
+      <c r="P38" s="223" t="s">
         <v>37</v>
       </c>
-      <c r="Q38" s="226">
+      <c r="Q38" s="225">
         <v>4782</v>
       </c>
       <c r="V38" s="69"/>
     </row>
-    <row r="39" spans="1:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
@@ -4788,30 +4794,30 @@
       <c r="G39" s="33"/>
       <c r="H39" s="33"/>
       <c r="I39" s="20"/>
-      <c r="J39" s="227" t="s">
+      <c r="J39" s="226" t="s">
         <v>15</v>
       </c>
-      <c r="K39" s="228" t="s">
+      <c r="K39" s="227" t="s">
         <v>99</v>
       </c>
-      <c r="L39" s="228" t="s">
+      <c r="L39" s="227" t="s">
         <v>48</v>
       </c>
-      <c r="M39" s="228" t="s">
+      <c r="M39" s="227" t="s">
         <v>99</v>
       </c>
-      <c r="N39" s="228" t="s">
+      <c r="N39" s="227" t="s">
         <v>18</v>
       </c>
-      <c r="O39" s="228" t="s">
-        <v>13</v>
-      </c>
-      <c r="P39" s="228" t="s">
+      <c r="O39" s="227" t="s">
+        <v>13</v>
+      </c>
+      <c r="P39" s="227" t="s">
         <v>73</v>
       </c>
-      <c r="Q39" s="229"/>
-    </row>
-    <row r="40" spans="1:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q39" s="228"/>
+    </row>
+    <row r="40" spans="1:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="65" t="s">
         <v>103</v>
       </c>
@@ -4851,7 +4857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="28"/>
       <c r="B41" s="37" t="s">
         <v>107</v>
@@ -4898,7 +4904,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
         <v>0</v>
       </c>
@@ -4949,7 +4955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
       <c r="B43" s="37" t="s">
         <v>117</v>
@@ -4994,7 +5000,7 @@
       </c>
       <c r="Q43" s="72"/>
     </row>
-    <row r="44" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="71" t="s">
         <v>120</v>
@@ -5032,14 +5038,14 @@
       <c r="O44" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="P44" s="250" t="s">
+      <c r="P44" s="249" t="s">
         <v>425</v>
       </c>
       <c r="Q44" s="72">
         <v>4154</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="37" t="s">
         <v>124</v>
@@ -5079,12 +5085,12 @@
       <c r="O45" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="P45" s="251" t="s">
+      <c r="P45" s="250" t="s">
         <v>85</v>
       </c>
       <c r="Q45" s="27"/>
     </row>
-    <row r="46" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="28"/>
       <c r="B46" s="37" t="s">
         <v>127</v>
@@ -5116,13 +5122,13 @@
       <c r="O46" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="P46" s="250" t="s">
+      <c r="P46" s="249" t="s">
         <v>436</v>
       </c>
       <c r="Q46" s="72"/>
       <c r="Y46" s="26"/>
     </row>
-    <row r="47" spans="1:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="28"/>
       <c r="B47" s="71" t="s">
         <v>130</v>
@@ -5144,7 +5150,7 @@
       </c>
       <c r="H47" s="38"/>
       <c r="I47" s="20"/>
-      <c r="J47" s="252"/>
+      <c r="J47" s="251"/>
       <c r="K47" s="50" t="s">
         <v>435</v>
       </c>
@@ -5154,12 +5160,12 @@
       <c r="O47" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="P47" s="253" t="s">
+      <c r="P47" s="252" t="s">
         <v>436</v>
       </c>
-      <c r="Q47" s="254"/>
-    </row>
-    <row r="48" spans="1:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q47" s="253"/>
+    </row>
+    <row r="48" spans="1:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="28"/>
       <c r="B48" s="37" t="s">
         <v>390</v>
@@ -5188,7 +5194,7 @@
       <c r="P48" s="33"/>
       <c r="Q48" s="34"/>
     </row>
-    <row r="49" spans="1:21" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="28"/>
       <c r="B49" s="100" t="s">
         <v>391</v>
@@ -5221,7 +5227,7 @@
       <c r="P49" s="13"/>
       <c r="Q49" s="13"/>
     </row>
-    <row r="50" spans="1:21" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A50" s="28"/>
       <c r="B50" s="37" t="s">
         <v>419</v>
@@ -5268,15 +5274,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="164"/>
-      <c r="B51" s="240" t="s">
+      <c r="B51" s="239" t="s">
         <v>420</v>
       </c>
-      <c r="C51" s="241" t="s">
+      <c r="C51" s="240" t="s">
         <v>139</v>
       </c>
-      <c r="D51" s="241" t="s">
+      <c r="D51" s="240" t="s">
         <v>420</v>
       </c>
       <c r="E51" s="33" t="s">
@@ -5285,7 +5291,7 @@
       <c r="F51" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="G51" s="242" t="s">
+      <c r="G51" s="241" t="s">
         <v>418</v>
       </c>
       <c r="H51" s="16"/>
@@ -5315,13 +5321,13 @@
         <v>4058</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="67"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
-      <c r="E52" s="243"/>
-      <c r="F52" s="244"/>
+      <c r="E52" s="242"/>
+      <c r="F52" s="243"/>
       <c r="G52" s="10"/>
       <c r="H52" s="11"/>
       <c r="I52" s="20"/>
@@ -5350,7 +5356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
         <v>393</v>
       </c>
@@ -5372,7 +5378,7 @@
       <c r="G53" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="H53" s="245">
+      <c r="H53" s="244">
         <v>4122</v>
       </c>
       <c r="I53" s="20"/>
@@ -5399,7 +5405,7 @@
         <v>4631</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
         <v>393</v>
       </c>
@@ -5444,7 +5450,7 @@
       </c>
       <c r="Q54" s="115"/>
     </row>
-    <row r="55" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="29" t="s">
         <v>393</v>
       </c>
@@ -5491,7 +5497,7 @@
       </c>
       <c r="Q55" s="115"/>
     </row>
-    <row r="56" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="187"/>
       <c r="B56" s="163"/>
       <c r="C56" s="163"/>
@@ -5524,7 +5530,7 @@
       </c>
       <c r="Q56" s="115"/>
     </row>
-    <row r="57" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="189" t="s">
         <v>413</v>
       </c>
@@ -5559,7 +5565,7 @@
       </c>
       <c r="Q57" s="115"/>
     </row>
-    <row r="58" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="65" t="s">
         <v>152</v>
       </c>
@@ -5588,29 +5594,29 @@
       <c r="J58" s="220" t="s">
         <v>0</v>
       </c>
-      <c r="K58" s="239" t="s">
+      <c r="K58" s="238" t="s">
         <v>340</v>
       </c>
-      <c r="L58" s="239" t="s">
+      <c r="L58" s="238" t="s">
         <v>51</v>
       </c>
-      <c r="M58" s="239" t="s">
+      <c r="M58" s="238" t="s">
         <v>340</v>
       </c>
-      <c r="N58" s="239" t="s">
+      <c r="N58" s="238" t="s">
         <v>18</v>
       </c>
       <c r="O58" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="P58" s="246" t="s">
+      <c r="P58" s="245" t="s">
         <v>339</v>
       </c>
       <c r="Q58" s="138">
         <v>4145</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="83"/>
       <c r="B59" s="105" t="s">
         <v>158</v>
@@ -5641,7 +5647,7 @@
       <c r="P59" s="125"/>
       <c r="Q59" s="126"/>
     </row>
-    <row r="60" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="45"/>
       <c r="B60" s="105" t="s">
         <v>164</v>
@@ -5674,7 +5680,7 @@
       <c r="P60" s="35"/>
       <c r="Q60" s="127"/>
     </row>
-    <row r="61" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="95"/>
       <c r="B61" s="105" t="s">
         <v>168</v>
@@ -5699,27 +5705,27 @@
       <c r="J61" s="220" t="s">
         <v>351</v>
       </c>
-      <c r="K61" s="239" t="s">
+      <c r="K61" s="238" t="s">
         <v>352</v>
       </c>
-      <c r="L61" s="239" t="s">
+      <c r="L61" s="238" t="s">
         <v>285</v>
       </c>
-      <c r="M61" s="239" t="s">
+      <c r="M61" s="238" t="s">
         <v>352</v>
       </c>
-      <c r="N61" s="239" t="s">
-        <v>12</v>
-      </c>
-      <c r="O61" s="239" t="s">
-        <v>13</v>
-      </c>
-      <c r="P61" s="246" t="s">
+      <c r="N61" s="238" t="s">
+        <v>12</v>
+      </c>
+      <c r="O61" s="238" t="s">
+        <v>13</v>
+      </c>
+      <c r="P61" s="245" t="s">
         <v>353</v>
       </c>
-      <c r="Q61" s="247"/>
-    </row>
-    <row r="62" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q61" s="246"/>
+    </row>
+    <row r="62" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="45"/>
       <c r="B62" s="105" t="s">
         <v>171</v>
@@ -5753,7 +5759,7 @@
       <c r="Q62" s="194"/>
       <c r="U62" s="185"/>
     </row>
-    <row r="63" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="45"/>
       <c r="B63" s="105" t="s">
         <v>174</v>
@@ -5785,7 +5791,7 @@
       <c r="Q63" s="194"/>
       <c r="U63" s="197"/>
     </row>
-    <row r="64" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="45"/>
       <c r="B64" s="105" t="s">
         <v>176</v>
@@ -5834,7 +5840,7 @@
       <c r="R64" s="90"/>
       <c r="U64" s="197"/>
     </row>
-    <row r="65" spans="1:21" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:21" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="45"/>
       <c r="B65" s="105" t="s">
         <v>335</v>
@@ -5868,24 +5874,24 @@
       <c r="Q65" s="16"/>
       <c r="U65" s="198"/>
     </row>
-    <row r="66" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="84"/>
-      <c r="B66" s="239" t="s">
+      <c r="B66" s="238" t="s">
         <v>336</v>
       </c>
-      <c r="C66" s="239" t="s">
+      <c r="C66" s="238" t="s">
         <v>338</v>
       </c>
-      <c r="D66" s="239" t="s">
+      <c r="D66" s="238" t="s">
         <v>336</v>
       </c>
-      <c r="E66" s="239" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="239" t="s">
+      <c r="E66" s="238" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="238" t="s">
         <v>36</v>
       </c>
-      <c r="G66" s="246" t="s">
+      <c r="G66" s="245" t="s">
         <v>339</v>
       </c>
       <c r="H66" s="138"/>
@@ -5916,7 +5922,7 @@
       </c>
       <c r="U66" s="63"/>
     </row>
-    <row r="67" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="128"/>
       <c r="B67" s="73"/>
       <c r="C67" s="73"/>
@@ -5950,7 +5956,7 @@
       </c>
       <c r="U67" s="63"/>
     </row>
-    <row r="68" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="17" t="s">
         <v>2</v>
       </c>
@@ -5999,7 +6005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="28" t="s">
         <v>180</v>
       </c>
@@ -6046,7 +6052,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="26" t="s">
         <v>179</v>
       </c>
@@ -6094,7 +6100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="28"/>
       <c r="B71" s="26" t="s">
         <v>181</v>
@@ -6134,12 +6140,12 @@
       <c r="O71" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="P71" s="249" t="s">
+      <c r="P71" s="248" t="s">
         <v>333</v>
       </c>
       <c r="Q71" s="109"/>
     </row>
-    <row r="72" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="28"/>
       <c r="B72" s="26" t="s">
         <v>184</v>
@@ -6176,14 +6182,14 @@
       <c r="O72" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="P72" s="249" t="s">
+      <c r="P72" s="248" t="s">
         <v>333</v>
       </c>
       <c r="Q72" s="38">
         <v>4604</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="28"/>
       <c r="B73" s="26" t="s">
         <v>185</v>
@@ -6221,7 +6227,7 @@
       <c r="O73" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="P73" s="249" t="s">
+      <c r="P73" s="248" t="s">
         <v>333</v>
       </c>
       <c r="Q73" s="129"/>
@@ -6229,7 +6235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="28"/>
       <c r="B74" s="26" t="s">
         <v>186</v>
@@ -6267,12 +6273,12 @@
       <c r="O74" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="P74" s="249" t="s">
+      <c r="P74" s="248" t="s">
         <v>333</v>
       </c>
       <c r="Q74" s="129"/>
     </row>
-    <row r="75" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="28" t="s">
         <v>0</v>
       </c>
@@ -6314,12 +6320,12 @@
       <c r="O75" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="P75" s="249" t="s">
+      <c r="P75" s="248" t="s">
         <v>333</v>
       </c>
       <c r="Q75" s="111"/>
     </row>
-    <row r="76" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="28"/>
       <c r="B76" s="26" t="s">
         <v>192</v>
@@ -6357,12 +6363,12 @@
       <c r="O76" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="P76" s="249" t="s">
+      <c r="P76" s="248" t="s">
         <v>333</v>
       </c>
       <c r="Q76" s="113"/>
     </row>
-    <row r="77" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="28"/>
       <c r="B77" s="26" t="s">
         <v>196</v>
@@ -6383,7 +6389,7 @@
       <c r="P77" s="33"/>
       <c r="Q77" s="34"/>
     </row>
-    <row r="78" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="28"/>
       <c r="B78" s="26" t="s">
         <v>198</v>
@@ -6430,7 +6436,7 @@
         <v>4108</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="28" t="s">
         <v>0</v>
       </c>
@@ -6467,7 +6473,7 @@
       <c r="P79" s="102"/>
       <c r="Q79" s="103"/>
     </row>
-    <row r="80" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="164"/>
       <c r="B80" s="26" t="s">
         <v>203</v>
@@ -6494,7 +6500,7 @@
       <c r="P80" s="106"/>
       <c r="Q80" s="118"/>
     </row>
-    <row r="81" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="39"/>
       <c r="B81" s="30" t="s">
         <v>206</v>
@@ -6527,7 +6533,7 @@
       <c r="P81" s="33"/>
       <c r="Q81" s="34"/>
     </row>
-    <row r="82" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I82" s="20"/>
       <c r="J82" s="28" t="s">
         <v>365</v>
@@ -6554,7 +6560,7 @@
         <v>4830</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="122" t="s">
         <v>344</v>
       </c>
@@ -6600,7 +6606,7 @@
       </c>
       <c r="Q83" s="111"/>
     </row>
-    <row r="84" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="120"/>
       <c r="B84" s="102" t="s">
         <v>346</v>
@@ -6643,7 +6649,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="119"/>
       <c r="B85" s="102" t="s">
         <v>347</v>
@@ -6686,7 +6692,7 @@
       </c>
       <c r="Q85" s="111"/>
     </row>
-    <row r="86" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="121"/>
       <c r="B86" s="106" t="s">
         <v>348</v>
@@ -6729,7 +6735,7 @@
       </c>
       <c r="Q86" s="113"/>
     </row>
-    <row r="87" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
@@ -6748,7 +6754,7 @@
       <c r="P87" s="168"/>
       <c r="Q87" s="169"/>
     </row>
-    <row r="88" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="154" t="s">
         <v>370</v>
       </c>
@@ -6781,7 +6787,7 @@
       <c r="P88" s="168"/>
       <c r="Q88" s="169"/>
     </row>
-    <row r="89" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="45"/>
       <c r="B89" s="96" t="s">
         <v>372</v>
@@ -6812,7 +6818,7 @@
       <c r="P89" s="168"/>
       <c r="Q89" s="169"/>
     </row>
-    <row r="90" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="45"/>
       <c r="B90" s="96" t="s">
         <v>373</v>
@@ -6841,7 +6847,7 @@
       <c r="P90" s="168"/>
       <c r="Q90" s="169"/>
     </row>
-    <row r="91" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="45"/>
       <c r="B91" s="37" t="s">
         <v>51</v>
@@ -6864,7 +6870,7 @@
       <c r="P91" s="168"/>
       <c r="Q91" s="169"/>
     </row>
-    <row r="92" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="84"/>
       <c r="B92" s="60" t="s">
         <v>51</v>
@@ -6887,15 +6893,15 @@
       <c r="P92" s="168"/>
       <c r="Q92" s="169"/>
     </row>
-    <row r="93" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="259"/>
+    <row r="93" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="258"/>
       <c r="B93" s="33"/>
       <c r="C93" s="33"/>
       <c r="D93" s="33"/>
       <c r="E93" s="33"/>
       <c r="F93" s="33"/>
-      <c r="G93" s="260"/>
-      <c r="H93" s="261"/>
+      <c r="G93" s="259"/>
+      <c r="H93" s="260"/>
       <c r="I93" s="20"/>
       <c r="J93" s="78"/>
       <c r="K93" s="200"/>
@@ -6906,7 +6912,7 @@
       <c r="P93" s="168"/>
       <c r="Q93" s="169"/>
     </row>
-    <row r="94" spans="1:17" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="142" t="s">
         <v>209</v>
       </c>
@@ -6929,7 +6935,7 @@
       <c r="P94" s="33"/>
       <c r="Q94" s="34"/>
     </row>
-    <row r="95" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="65" t="s">
         <v>210</v>
       </c>
@@ -6978,7 +6984,7 @@
         <v>4842</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="28"/>
       <c r="B96" s="15" t="s">
         <v>214</v>
@@ -7021,7 +7027,7 @@
       </c>
       <c r="Q96" s="27"/>
     </row>
-    <row r="97" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="28"/>
       <c r="B97" s="15" t="s">
         <v>97</v>
@@ -7058,7 +7064,7 @@
       </c>
       <c r="Q97" s="27"/>
     </row>
-    <row r="98" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="28"/>
       <c r="B98" s="37" t="s">
         <v>97</v>
@@ -7095,7 +7101,7 @@
       </c>
       <c r="Q98" s="27"/>
     </row>
-    <row r="99" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="28"/>
       <c r="B99" s="37" t="s">
         <v>97</v>
@@ -7132,7 +7138,7 @@
       </c>
       <c r="Q99" s="27"/>
     </row>
-    <row r="100" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="28"/>
       <c r="B100" s="37" t="s">
         <v>97</v>
@@ -7171,7 +7177,7 @@
       </c>
       <c r="Q100" s="27"/>
     </row>
-    <row r="101" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="28"/>
       <c r="B101" s="37" t="s">
         <v>221</v>
@@ -7210,7 +7216,7 @@
       </c>
       <c r="Q101" s="31"/>
     </row>
-    <row r="102" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="28"/>
       <c r="B102" s="37" t="s">
         <v>224</v>
@@ -7235,7 +7241,7 @@
       <c r="P102" s="66"/>
       <c r="Q102" s="91"/>
     </row>
-    <row r="103" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="28"/>
       <c r="B103" s="37" t="s">
         <v>226</v>
@@ -7274,7 +7280,7 @@
       <c r="P103" s="22"/>
       <c r="Q103" s="43"/>
     </row>
-    <row r="104" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="28"/>
       <c r="B104" s="37" t="s">
         <v>231</v>
@@ -7311,7 +7317,7 @@
         <v>4737</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="39"/>
       <c r="B105" s="37" t="s">
         <v>234</v>
@@ -7342,7 +7348,7 @@
       </c>
       <c r="Q105" s="38"/>
     </row>
-    <row r="106" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="17"/>
       <c r="B106" s="60" t="s">
         <v>237</v>
@@ -7375,7 +7381,7 @@
       </c>
       <c r="Q106" s="38"/>
     </row>
-    <row r="107" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="67"/>
       <c r="B107" s="33"/>
       <c r="C107" s="33"/>
@@ -7400,7 +7406,7 @@
       </c>
       <c r="Q107" s="61"/>
     </row>
-    <row r="108" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="21" t="s">
         <v>274</v>
       </c>
@@ -7427,7 +7433,7 @@
       <c r="P108" s="82"/>
       <c r="Q108" s="48"/>
     </row>
-    <row r="109" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="28"/>
       <c r="B109" s="37" t="s">
         <v>97</v>
@@ -7468,7 +7474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="28"/>
       <c r="B110" s="37" t="s">
         <v>97</v>
@@ -7505,7 +7511,7 @@
       <c r="P110" s="26"/>
       <c r="Q110" s="38"/>
     </row>
-    <row r="111" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="25" t="s">
         <v>15</v>
       </c>
@@ -7552,7 +7558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="25" t="s">
         <v>15</v>
       </c>
@@ -7599,7 +7605,7 @@
       </c>
       <c r="Q112" s="38"/>
     </row>
-    <row r="113" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="25" t="s">
         <v>15</v>
       </c>
@@ -7644,7 +7650,7 @@
       </c>
       <c r="Q113" s="38"/>
     </row>
-    <row r="114" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="25" t="s">
         <v>15</v>
       </c>
@@ -7691,7 +7697,7 @@
         <v>4367</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="25" t="s">
         <v>15</v>
       </c>
@@ -7736,7 +7742,7 @@
       </c>
       <c r="Q115" s="38"/>
     </row>
-    <row r="116" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="28"/>
       <c r="B116" s="26" t="s">
         <v>303</v>
@@ -7779,7 +7785,7 @@
       </c>
       <c r="Q116" s="38"/>
     </row>
-    <row r="117" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="28"/>
       <c r="B117" s="26" t="s">
         <v>307</v>
@@ -7822,7 +7828,7 @@
       </c>
       <c r="Q117" s="38"/>
     </row>
-    <row r="118" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="28"/>
       <c r="B118" s="37" t="s">
         <v>309</v>
@@ -7865,7 +7871,7 @@
       </c>
       <c r="Q118" s="38"/>
     </row>
-    <row r="119" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="28"/>
       <c r="B119" s="37" t="s">
         <v>311</v>
@@ -7902,7 +7908,7 @@
       </c>
       <c r="Q119" s="38"/>
     </row>
-    <row r="120" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="93"/>
       <c r="B120" s="37" t="s">
         <v>312</v>
@@ -7945,7 +7951,7 @@
       </c>
       <c r="Q120" s="61"/>
     </row>
-    <row r="121" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="147"/>
       <c r="B121" s="112" t="s">
         <v>314</v>
@@ -7976,7 +7982,7 @@
       <c r="P121" s="82"/>
       <c r="Q121" s="48"/>
     </row>
-    <row r="122" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I122" s="63"/>
       <c r="J122" s="176" t="s">
         <v>397</v>
@@ -7989,7 +7995,7 @@
       <c r="P122" s="82"/>
       <c r="Q122" s="48"/>
     </row>
-    <row r="123" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="134" t="s">
         <v>406</v>
       </c>
@@ -8038,7 +8044,7 @@
         <v>4349</v>
       </c>
     </row>
-    <row r="124" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="133" t="s">
         <v>407</v>
       </c>
@@ -8083,7 +8089,7 @@
       </c>
       <c r="Q124" s="184"/>
     </row>
-    <row r="125" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="133"/>
       <c r="B125" s="102" t="s">
         <v>410</v>
@@ -8105,16 +8111,16 @@
       </c>
       <c r="H125" s="103"/>
       <c r="I125" s="63"/>
-      <c r="J125" s="255"/>
-      <c r="K125" s="256"/>
-      <c r="L125" s="256"/>
-      <c r="M125" s="256"/>
-      <c r="N125" s="256"/>
-      <c r="O125" s="256"/>
-      <c r="P125" s="256"/>
-      <c r="Q125" s="257"/>
-    </row>
-    <row r="126" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J125" s="254"/>
+      <c r="K125" s="255"/>
+      <c r="L125" s="255"/>
+      <c r="M125" s="255"/>
+      <c r="N125" s="255"/>
+      <c r="O125" s="255"/>
+      <c r="P125" s="255"/>
+      <c r="Q125" s="256"/>
+    </row>
+    <row r="126" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="117"/>
       <c r="B126" s="106" t="s">
         <v>411</v>
@@ -8145,7 +8151,7 @@
       <c r="P126" s="60"/>
       <c r="Q126" s="61"/>
     </row>
-    <row r="127" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I127" s="94"/>
       <c r="J127" s="82"/>
       <c r="K127" s="82"/>
@@ -8156,7 +8162,7 @@
       <c r="P127" s="82"/>
       <c r="Q127" s="82"/>
     </row>
-    <row r="128" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>441</v>
       </c>
@@ -8177,7 +8183,7 @@
       <c r="P128" s="37"/>
       <c r="Q128" s="37"/>
     </row>
-    <row r="129" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="122" t="s">
         <v>430</v>
       </c>
@@ -8210,7 +8216,7 @@
       <c r="P129" s="37"/>
       <c r="Q129" s="37"/>
     </row>
-    <row r="130" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="119" t="s">
         <v>431</v>
       </c>
@@ -8242,8 +8248,8 @@
       <c r="P130" s="37"/>
       <c r="Q130" s="37"/>
     </row>
-    <row r="131" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="248"/>
+    <row r="131" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="247"/>
       <c r="B131" s="205"/>
       <c r="C131" s="205"/>
       <c r="D131" s="205"/>
@@ -8258,9 +8264,9 @@
       <c r="N131" s="33"/>
       <c r="O131" s="33"/>
       <c r="P131" s="33"/>
-      <c r="Q131" s="258"/>
-    </row>
-    <row r="132" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q131" s="257"/>
+    </row>
+    <row r="132" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J132" s="78"/>
       <c r="K132" s="33"/>
       <c r="L132" s="33"/>
@@ -8270,7 +8276,7 @@
       <c r="P132" s="33"/>
       <c r="Q132" s="34"/>
     </row>
-    <row r="133" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="17" t="s">
         <v>2</v>
       </c>
@@ -8320,7 +8326,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="21" t="s">
         <v>245</v>
       </c>
@@ -8370,7 +8376,7 @@
         <v>4556</v>
       </c>
     </row>
-    <row r="135" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="28" t="s">
         <v>0</v>
       </c>
@@ -8416,7 +8422,7 @@
       </c>
       <c r="Q135" s="38"/>
     </row>
-    <row r="136" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="28"/>
       <c r="B136" s="37" t="s">
         <v>258</v>
@@ -8462,7 +8468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="28"/>
       <c r="B137" s="37" t="s">
         <v>263</v>
@@ -8498,7 +8504,7 @@
       </c>
       <c r="Q137" s="38"/>
     </row>
-    <row r="138" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="28"/>
       <c r="B138" s="37" t="s">
         <v>266</v>
@@ -8534,7 +8540,7 @@
       </c>
       <c r="Q138" s="38"/>
     </row>
-    <row r="139" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="28"/>
       <c r="B139" s="37" t="s">
         <v>268</v>
@@ -8570,7 +8576,7 @@
       </c>
       <c r="Q139" s="38"/>
     </row>
-    <row r="140" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="92"/>
       <c r="B140" s="60" t="s">
         <v>269</v>
@@ -8606,7 +8612,7 @@
       </c>
       <c r="Q140" s="38"/>
     </row>
-    <row r="141" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="79"/>
       <c r="B141" s="33"/>
       <c r="C141" s="33"/>
@@ -8636,7 +8642,7 @@
       </c>
       <c r="Q141" s="38"/>
     </row>
-    <row r="142" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="150" t="s">
         <v>395</v>
       </c>
@@ -8680,7 +8686,7 @@
       </c>
       <c r="Q142" s="38"/>
     </row>
-    <row r="143" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="152"/>
       <c r="B143" s="102" t="s">
         <v>375</v>
@@ -8728,7 +8734,7 @@
         <v>4732</v>
       </c>
     </row>
-    <row r="144" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="152"/>
       <c r="B144" s="102" t="s">
         <v>394</v>
@@ -8770,7 +8776,7 @@
       </c>
       <c r="Q144" s="38"/>
     </row>
-    <row r="145" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="152"/>
       <c r="B145" s="102" t="s">
         <v>376</v>
@@ -8804,7 +8810,7 @@
       </c>
       <c r="Q145" s="38"/>
     </row>
-    <row r="146" spans="1:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="152"/>
       <c r="B146" s="102" t="s">
         <v>377</v>
@@ -8846,7 +8852,7 @@
       </c>
       <c r="Q146" s="61"/>
     </row>
-    <row r="147" spans="1:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="152"/>
       <c r="B147" s="102" t="s">
         <v>386</v>
@@ -8879,7 +8885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="152"/>
       <c r="B148" s="102" t="s">
         <v>378</v>
@@ -8923,7 +8929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="152"/>
       <c r="B149" s="102" t="s">
         <v>379</v>
@@ -8967,7 +8973,7 @@
       </c>
       <c r="Q149" s="27"/>
     </row>
-    <row r="150" spans="1:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="147"/>
       <c r="B150" s="106" t="s">
         <v>380</v>
@@ -9011,7 +9017,7 @@
         <v>4543</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="175"/>
       <c r="B151" s="175"/>
       <c r="C151" s="175"/>
@@ -9041,7 +9047,7 @@
       </c>
       <c r="Q151" s="27"/>
     </row>
-    <row r="152" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="158"/>
       <c r="B152" s="158"/>
       <c r="C152" s="158"/>
@@ -9071,7 +9077,7 @@
       </c>
       <c r="Q152" s="27"/>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="158"/>
       <c r="B153" s="56"/>
       <c r="C153" s="56"/>
@@ -9101,7 +9107,7 @@
       </c>
       <c r="Q153" s="27"/>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="158"/>
       <c r="B154" s="158"/>
       <c r="C154" s="158"/>
@@ -9131,7 +9137,7 @@
       </c>
       <c r="Q154" s="27"/>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="158"/>
       <c r="B155" s="158"/>
       <c r="C155" s="158"/>
@@ -9155,7 +9161,7 @@
       </c>
       <c r="Q155" s="27"/>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="158"/>
       <c r="B156" s="158"/>
       <c r="C156" s="158"/>
@@ -9179,7 +9185,7 @@
       </c>
       <c r="Q156" s="27"/>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="158"/>
       <c r="B157" s="158"/>
       <c r="C157" s="158"/>
@@ -9203,7 +9209,7 @@
       </c>
       <c r="Q157" s="27"/>
     </row>
-    <row r="158" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="158"/>
       <c r="B158" s="158"/>
       <c r="C158" s="158"/>
@@ -9229,7 +9235,7 @@
       </c>
       <c r="Q158" s="31"/>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="135"/>
       <c r="J159" s="185"/>
       <c r="K159" s="185"/>
@@ -9240,7 +9246,7 @@
       <c r="P159" s="185"/>
       <c r="Q159" s="185"/>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="136"/>
       <c r="J160" s="185"/>
       <c r="K160" s="185"/>
@@ -9251,7 +9257,7 @@
       <c r="P160" s="185"/>
       <c r="Q160" s="185"/>
     </row>
-    <row r="161" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="161" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J161" s="185"/>
       <c r="K161" s="185"/>
       <c r="L161" s="185"/>
@@ -9261,40 +9267,40 @@
       <c r="P161" s="185"/>
       <c r="Q161" s="185"/>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I177"/>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I178"/>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I179"/>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I180"/>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I181"/>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I182"/>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I183"/>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I184"/>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I185"/>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I186"/>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I187"/>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188"/>
       <c r="B188"/>
       <c r="C188"/>
@@ -9305,7 +9311,7 @@
       <c r="H188"/>
       <c r="I188"/>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189"/>
       <c r="B189"/>
       <c r="C189"/>
@@ -9316,7 +9322,7 @@
       <c r="H189"/>
       <c r="I189"/>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190"/>
       <c r="B190"/>
       <c r="C190"/>
@@ -9327,7 +9333,7 @@
       <c r="H190"/>
       <c r="I190"/>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191"/>
       <c r="B191"/>
       <c r="C191"/>
@@ -9345,7 +9351,7 @@
       <c r="P191"/>
       <c r="Q191"/>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192"/>
       <c r="B192"/>
       <c r="C192"/>
@@ -9363,327 +9369,327 @@
       <c r="P192"/>
       <c r="Q192"/>
     </row>
-    <row r="193" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F193" s="216"/>
       <c r="K193" s="1"/>
     </row>
-    <row r="194" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F194" s="216"/>
       <c r="K194" s="1"/>
     </row>
-    <row r="195" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F195" s="216"/>
       <c r="K195" s="1"/>
     </row>
-    <row r="196" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F196" s="216"/>
       <c r="K196" s="1"/>
     </row>
-    <row r="197" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F197" s="216"/>
       <c r="K197" s="1"/>
     </row>
-    <row r="198" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F198" s="216"/>
       <c r="K198" s="1"/>
     </row>
-    <row r="199" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F199" s="216"/>
       <c r="K199" s="1"/>
     </row>
-    <row r="200" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F200" s="216"/>
       <c r="K200" s="1"/>
     </row>
-    <row r="201" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F201" s="216"/>
       <c r="K201" s="1"/>
     </row>
-    <row r="202" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F202" s="216"/>
       <c r="K202" s="1"/>
     </row>
-    <row r="203" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F203" s="216"/>
       <c r="K203" s="1"/>
     </row>
-    <row r="204" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F204" s="216"/>
       <c r="K204" s="1"/>
     </row>
-    <row r="205" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F205" s="216"/>
       <c r="K205" s="1"/>
     </row>
-    <row r="206" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F206" s="216"/>
       <c r="K206" s="1"/>
     </row>
-    <row r="207" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F207" s="216"/>
       <c r="K207" s="1"/>
     </row>
-    <row r="208" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F208" s="216"/>
       <c r="K208" s="1"/>
     </row>
-    <row r="209" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F209" s="216"/>
       <c r="K209" s="1"/>
     </row>
-    <row r="210" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F210" s="216"/>
       <c r="K210" s="1"/>
     </row>
-    <row r="211" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F211" s="216"/>
       <c r="K211" s="1"/>
     </row>
-    <row r="212" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F212" s="216"/>
       <c r="K212" s="1"/>
     </row>
-    <row r="213" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F213" s="216"/>
       <c r="K213" s="1"/>
     </row>
-    <row r="214" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F214" s="216"/>
       <c r="K214" s="1"/>
     </row>
-    <row r="215" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F215" s="216"/>
       <c r="K215" s="1"/>
     </row>
-    <row r="216" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F216" s="216"/>
       <c r="K216" s="1"/>
     </row>
-    <row r="217" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F217" s="216"/>
       <c r="K217" s="1"/>
     </row>
-    <row r="218" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F218" s="216"/>
       <c r="K218" s="1"/>
     </row>
-    <row r="219" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F219" s="216"/>
       <c r="K219" s="1"/>
     </row>
-    <row r="220" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F220" s="216"/>
       <c r="K220" s="1"/>
     </row>
-    <row r="221" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F221" s="216"/>
       <c r="K221" s="1"/>
     </row>
-    <row r="222" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F222" s="216"/>
       <c r="K222" s="1"/>
     </row>
-    <row r="223" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F223" s="216"/>
       <c r="K223" s="1"/>
     </row>
-    <row r="224" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F224" s="216"/>
       <c r="K224" s="1"/>
     </row>
-    <row r="225" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F225" s="216"/>
       <c r="K225" s="1"/>
     </row>
-    <row r="226" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F226" s="216"/>
       <c r="K226" s="1"/>
     </row>
-    <row r="227" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F227" s="216"/>
       <c r="K227" s="1"/>
     </row>
-    <row r="228" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F228" s="216"/>
       <c r="K228" s="1"/>
     </row>
-    <row r="229" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F229" s="216"/>
       <c r="K229" s="1"/>
     </row>
-    <row r="230" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F230" s="216"/>
       <c r="K230" s="1"/>
     </row>
-    <row r="231" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F231" s="216"/>
       <c r="K231" s="1"/>
     </row>
-    <row r="232" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F232" s="216"/>
       <c r="K232" s="1"/>
     </row>
-    <row r="233" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F233" s="216"/>
       <c r="K233" s="1"/>
     </row>
-    <row r="234" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F234" s="216"/>
       <c r="K234" s="1"/>
     </row>
-    <row r="235" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F235" s="216"/>
       <c r="K235" s="1"/>
     </row>
-    <row r="236" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F236" s="216"/>
       <c r="K236" s="1"/>
     </row>
-    <row r="237" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F237" s="216"/>
       <c r="K237" s="1"/>
     </row>
-    <row r="238" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F238" s="216"/>
       <c r="K238" s="1"/>
     </row>
-    <row r="239" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F239" s="216"/>
       <c r="K239" s="1"/>
     </row>
-    <row r="240" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F240" s="216"/>
       <c r="K240" s="1"/>
     </row>
-    <row r="241" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F241" s="216"/>
       <c r="K241" s="1"/>
     </row>
-    <row r="242" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F242" s="216"/>
       <c r="K242" s="1"/>
     </row>
-    <row r="243" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F243" s="216"/>
       <c r="K243" s="1"/>
     </row>
-    <row r="244" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F244" s="216"/>
       <c r="K244" s="1"/>
     </row>
-    <row r="245" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F245" s="216"/>
       <c r="K245" s="1"/>
     </row>
-    <row r="246" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F246" s="216"/>
       <c r="K246" s="1"/>
     </row>
-    <row r="247" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F247" s="216"/>
       <c r="K247" s="1"/>
     </row>
-    <row r="248" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F248" s="216"/>
       <c r="K248" s="1"/>
     </row>
-    <row r="249" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F249" s="216"/>
       <c r="K249" s="1"/>
     </row>
-    <row r="250" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F250" s="216"/>
       <c r="K250" s="1"/>
     </row>
-    <row r="251" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F251" s="216"/>
       <c r="K251" s="1"/>
     </row>
-    <row r="252" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F252" s="216"/>
       <c r="K252" s="1"/>
     </row>
-    <row r="253" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F253" s="216"/>
       <c r="K253" s="1"/>
     </row>
-    <row r="254" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F254" s="216"/>
       <c r="K254" s="1"/>
     </row>
-    <row r="255" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F255" s="216"/>
       <c r="K255" s="1"/>
     </row>
-    <row r="256" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F256" s="216"/>
       <c r="K256" s="1"/>
     </row>
-    <row r="257" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F257" s="216"/>
       <c r="K257" s="1"/>
     </row>
-    <row r="258" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F258" s="216"/>
       <c r="K258" s="1"/>
     </row>
-    <row r="259" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F259" s="216"/>
       <c r="K259" s="1"/>
     </row>
-    <row r="260" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F260" s="216"/>
       <c r="K260" s="1"/>
     </row>
-    <row r="261" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F261" s="216"/>
       <c r="K261" s="1"/>
     </row>
-    <row r="262" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F262" s="216"/>
       <c r="K262" s="1"/>
     </row>
-    <row r="263" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F263" s="216"/>
       <c r="K263" s="1"/>
     </row>
-    <row r="264" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F264" s="216"/>
       <c r="K264" s="1"/>
     </row>
-    <row r="265" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F265" s="216"/>
       <c r="K265" s="1"/>
     </row>
-    <row r="266" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F266" s="216"/>
       <c r="K266" s="1"/>
     </row>
-    <row r="267" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F267" s="216"/>
       <c r="K267" s="1"/>
     </row>
-    <row r="268" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F268" s="216"/>
       <c r="K268" s="1"/>
     </row>
-    <row r="269" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F269" s="216"/>
       <c r="K269" s="1"/>
     </row>
-    <row r="270" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F270" s="216"/>
       <c r="K270" s="1"/>
     </row>
-    <row r="271" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F271" s="216"/>
       <c r="K271" s="1"/>
     </row>
-    <row r="272" spans="6:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="6:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F272" s="216"/>
       <c r="K272" s="1"/>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A273"/>
       <c r="B273"/>
       <c r="C273"/>
@@ -9701,7 +9707,7 @@
       <c r="P273"/>
       <c r="Q273"/>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A274"/>
       <c r="B274"/>
       <c r="C274"/>
@@ -9719,7 +9725,7 @@
       <c r="P274"/>
       <c r="Q274"/>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A275"/>
       <c r="B275"/>
       <c r="C275"/>
@@ -9737,7 +9743,7 @@
       <c r="P275"/>
       <c r="Q275"/>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A276"/>
       <c r="B276"/>
       <c r="C276"/>
@@ -9755,7 +9761,7 @@
       <c r="P276"/>
       <c r="Q276"/>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A277"/>
       <c r="B277"/>
       <c r="C277"/>
@@ -9772,7 +9778,7 @@
       <c r="P277"/>
       <c r="Q277"/>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A278"/>
       <c r="B278"/>
       <c r="C278"/>
@@ -9789,7 +9795,7 @@
       <c r="P278"/>
       <c r="Q278"/>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A279"/>
       <c r="B279"/>
       <c r="C279"/>
@@ -9806,7 +9812,7 @@
       <c r="P279"/>
       <c r="Q279"/>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A280"/>
       <c r="B280"/>
       <c r="C280"/>
@@ -9823,7 +9829,7 @@
       <c r="P280"/>
       <c r="Q280"/>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A281"/>
       <c r="B281"/>
       <c r="C281"/>
@@ -9840,7 +9846,7 @@
       <c r="P281"/>
       <c r="Q281"/>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A282"/>
       <c r="B282"/>
       <c r="C282"/>
@@ -9857,7 +9863,7 @@
       <c r="P282"/>
       <c r="Q282"/>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A283"/>
       <c r="B283"/>
       <c r="C283"/>
@@ -9874,7 +9880,7 @@
       <c r="P283"/>
       <c r="Q283"/>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A284"/>
       <c r="B284"/>
       <c r="C284"/>
@@ -9891,7 +9897,7 @@
       <c r="P284"/>
       <c r="Q284"/>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A285"/>
       <c r="B285"/>
       <c r="C285"/>
@@ -9908,7 +9914,7 @@
       <c r="P285"/>
       <c r="Q285"/>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A286"/>
       <c r="B286"/>
       <c r="C286"/>
@@ -9925,7 +9931,7 @@
       <c r="P286"/>
       <c r="Q286"/>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A287"/>
       <c r="B287"/>
       <c r="C287"/>
@@ -9942,7 +9948,7 @@
       <c r="P287"/>
       <c r="Q287"/>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J288"/>
       <c r="L288"/>
       <c r="M288"/>
@@ -9951,7 +9957,7 @@
       <c r="P288"/>
       <c r="Q288"/>
     </row>
-    <row r="289" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="289" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J289"/>
       <c r="L289"/>
       <c r="M289"/>
@@ -9960,7 +9966,7 @@
       <c r="P289"/>
       <c r="Q289"/>
     </row>
-    <row r="290" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="290" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J290"/>
       <c r="L290"/>
       <c r="M290"/>
@@ -9970,6 +9976,7 @@
       <c r="Q290"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Z290" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -9981,9 +9988,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -9997,9 +10004,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
